--- a/xlsx/迦納_intext.xlsx
+++ b/xlsx/迦納_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1002">
   <si>
     <t>迦納</t>
   </si>
@@ -29,13 +29,7 @@
     <t>黃金海岸</t>
   </si>
   <si>
-    <t>政策_政策_美國_迦納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>發展心理學</t>
+    <t>体育运动_体育运动_南非_迦納</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%B2%83%E5%BE%B7%C2%B7%E5%8A%A0%E5%BE%B7%E7%B4%8D</t>
@@ -3375,7 +3369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I528"/>
+  <dimension ref="A1:I527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3574,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -3603,7 +3597,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -3661,7 +3655,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -3684,13 +3678,13 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -3719,7 +3713,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -3777,7 +3771,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -3835,7 +3829,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -3864,7 +3858,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -3951,7 +3945,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -3980,7 +3974,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -4125,7 +4119,7 @@
         <v>50</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -4154,7 +4148,7 @@
         <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -4177,10 +4171,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -4206,10 +4200,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -4235,10 +4229,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -4299,7 +4293,7 @@
         <v>58</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -4328,7 +4322,7 @@
         <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -4879,7 +4873,7 @@
         <v>98</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -4908,7 +4902,7 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -4937,7 +4931,7 @@
         <v>102</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4966,7 +4960,7 @@
         <v>104</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -4995,7 +4989,7 @@
         <v>106</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -5024,7 +5018,7 @@
         <v>108</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -5053,7 +5047,7 @@
         <v>110</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -5082,7 +5076,7 @@
         <v>112</v>
       </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -5256,7 +5250,7 @@
         <v>124</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -5285,7 +5279,7 @@
         <v>126</v>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -5430,7 +5424,7 @@
         <v>136</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -5459,7 +5453,7 @@
         <v>138</v>
       </c>
       <c r="G72" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -5488,7 +5482,7 @@
         <v>140</v>
       </c>
       <c r="G73" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -5546,7 +5540,7 @@
         <v>144</v>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -5575,7 +5569,7 @@
         <v>146</v>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -5604,7 +5598,7 @@
         <v>148</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -5633,7 +5627,7 @@
         <v>150</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -5691,7 +5685,7 @@
         <v>154</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -5720,7 +5714,7 @@
         <v>156</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -5749,7 +5743,7 @@
         <v>158</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -5778,7 +5772,7 @@
         <v>160</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -5865,7 +5859,7 @@
         <v>166</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -5894,7 +5888,7 @@
         <v>168</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -5917,10 +5911,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5946,10 +5940,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6010,7 +6004,7 @@
         <v>174</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -6039,7 +6033,7 @@
         <v>176</v>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -6126,7 +6120,7 @@
         <v>182</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -6155,7 +6149,7 @@
         <v>184</v>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -6184,7 +6178,7 @@
         <v>186</v>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -6271,7 +6265,7 @@
         <v>192</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -6300,7 +6294,7 @@
         <v>194</v>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -6642,10 +6636,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6671,10 +6665,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6932,10 +6926,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6961,10 +6955,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6996,7 +6990,7 @@
         <v>238</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -7025,7 +7019,7 @@
         <v>240</v>
       </c>
       <c r="G126" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -7054,7 +7048,7 @@
         <v>242</v>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -7083,7 +7077,7 @@
         <v>244</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -7112,7 +7106,7 @@
         <v>246</v>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -7315,7 +7309,7 @@
         <v>260</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -7344,7 +7338,7 @@
         <v>262</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -7373,7 +7367,7 @@
         <v>264</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -7402,7 +7396,7 @@
         <v>266</v>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -7431,7 +7425,7 @@
         <v>268</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -7460,7 +7454,7 @@
         <v>270</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -7489,7 +7483,7 @@
         <v>272</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -7634,7 +7628,7 @@
         <v>282</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -7663,7 +7657,7 @@
         <v>284</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -7692,7 +7686,7 @@
         <v>286</v>
       </c>
       <c r="G149" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -7721,7 +7715,7 @@
         <v>288</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -7750,7 +7744,7 @@
         <v>290</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -7779,7 +7773,7 @@
         <v>292</v>
       </c>
       <c r="G152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -7808,7 +7802,7 @@
         <v>294</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -7837,7 +7831,7 @@
         <v>296</v>
       </c>
       <c r="G154" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -7866,7 +7860,7 @@
         <v>298</v>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -7895,7 +7889,7 @@
         <v>300</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -7924,7 +7918,7 @@
         <v>302</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7953,7 +7947,7 @@
         <v>304</v>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -7982,7 +7976,7 @@
         <v>306</v>
       </c>
       <c r="G159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -8011,7 +8005,7 @@
         <v>308</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -8040,7 +8034,7 @@
         <v>310</v>
       </c>
       <c r="G161" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -8069,7 +8063,7 @@
         <v>312</v>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -8098,7 +8092,7 @@
         <v>314</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -8243,7 +8237,7 @@
         <v>324</v>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -8272,7 +8266,7 @@
         <v>326</v>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -8301,7 +8295,7 @@
         <v>328</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -8330,7 +8324,7 @@
         <v>330</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -8388,7 +8382,7 @@
         <v>334</v>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -8475,7 +8469,7 @@
         <v>340</v>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -8504,7 +8498,7 @@
         <v>342</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -8533,7 +8527,7 @@
         <v>344</v>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -8562,7 +8556,7 @@
         <v>346</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -8591,7 +8585,7 @@
         <v>348</v>
       </c>
       <c r="G180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -8649,7 +8643,7 @@
         <v>352</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -8736,7 +8730,7 @@
         <v>358</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -8765,7 +8759,7 @@
         <v>360</v>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -8823,7 +8817,7 @@
         <v>364</v>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8852,7 +8846,7 @@
         <v>366</v>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -8881,7 +8875,7 @@
         <v>368</v>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8910,7 +8904,7 @@
         <v>370</v>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8939,7 +8933,7 @@
         <v>372</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8997,7 +8991,7 @@
         <v>376</v>
       </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -9084,7 +9078,7 @@
         <v>382</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -9142,7 +9136,7 @@
         <v>386</v>
       </c>
       <c r="G199" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -9171,7 +9165,7 @@
         <v>388</v>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -9200,7 +9194,7 @@
         <v>390</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -9258,7 +9252,7 @@
         <v>394</v>
       </c>
       <c r="G203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -9287,7 +9281,7 @@
         <v>396</v>
       </c>
       <c r="G204" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -9519,7 +9513,7 @@
         <v>412</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9548,7 +9542,7 @@
         <v>414</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -9983,7 +9977,7 @@
         <v>444</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -10012,7 +10006,7 @@
         <v>446</v>
       </c>
       <c r="G229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -10128,7 +10122,7 @@
         <v>454</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -10151,13 +10145,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>347</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>348</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -10180,13 +10174,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="F235" t="s">
-        <v>350</v>
+        <v>456</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -10215,7 +10209,7 @@
         <v>458</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -10244,7 +10238,7 @@
         <v>460</v>
       </c>
       <c r="G237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -10273,7 +10267,7 @@
         <v>462</v>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -10302,7 +10296,7 @@
         <v>464</v>
       </c>
       <c r="G239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -10360,7 +10354,7 @@
         <v>468</v>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -10389,7 +10383,7 @@
         <v>470</v>
       </c>
       <c r="G242" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10412,13 +10406,13 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>379</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>380</v>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -10441,10 +10435,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>381</v>
+        <v>471</v>
       </c>
       <c r="F244" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10476,7 +10470,7 @@
         <v>474</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10505,7 +10499,7 @@
         <v>476</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -10592,7 +10586,7 @@
         <v>482</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10621,7 +10615,7 @@
         <v>484</v>
       </c>
       <c r="G250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10737,7 +10731,7 @@
         <v>492</v>
       </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -10766,7 +10760,7 @@
         <v>494</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -10795,7 +10789,7 @@
         <v>496</v>
       </c>
       <c r="G256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -10824,7 +10818,7 @@
         <v>498</v>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10853,7 +10847,7 @@
         <v>500</v>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10882,7 +10876,7 @@
         <v>502</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10911,7 +10905,7 @@
         <v>504</v>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10940,7 +10934,7 @@
         <v>506</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10969,7 +10963,7 @@
         <v>508</v>
       </c>
       <c r="G262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10998,7 +10992,7 @@
         <v>510</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -11810,7 +11804,7 @@
         <v>566</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11839,7 +11833,7 @@
         <v>568</v>
       </c>
       <c r="G292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11897,7 +11891,7 @@
         <v>572</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11926,7 +11920,7 @@
         <v>574</v>
       </c>
       <c r="G295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -11955,7 +11949,7 @@
         <v>576</v>
       </c>
       <c r="G296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -11984,7 +11978,7 @@
         <v>578</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12007,13 +12001,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>331</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>332</v>
       </c>
       <c r="G298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -12036,13 +12030,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F299" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -12065,10 +12059,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F300" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12094,10 +12088,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F301" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12123,10 +12117,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>339</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12181,13 +12175,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>583</v>
+        <v>307</v>
       </c>
       <c r="F304" t="s">
-        <v>584</v>
+        <v>308</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -12210,13 +12204,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>309</v>
+        <v>583</v>
       </c>
       <c r="F305" t="s">
-        <v>310</v>
+        <v>584</v>
       </c>
       <c r="G305" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -12245,7 +12239,7 @@
         <v>586</v>
       </c>
       <c r="G306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -12303,7 +12297,7 @@
         <v>590</v>
       </c>
       <c r="G308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -12332,7 +12326,7 @@
         <v>592</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12390,7 +12384,7 @@
         <v>596</v>
       </c>
       <c r="G311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12477,7 +12471,7 @@
         <v>602</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12529,10 +12523,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>297</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>298</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12558,13 +12552,13 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>299</v>
+        <v>605</v>
       </c>
       <c r="F317" t="s">
-        <v>300</v>
+        <v>606</v>
       </c>
       <c r="G317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12593,7 +12587,7 @@
         <v>608</v>
       </c>
       <c r="G318" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12616,10 +12610,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>459</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>460</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12645,10 +12639,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>461</v>
+        <v>609</v>
       </c>
       <c r="F320" t="s">
-        <v>462</v>
+        <v>610</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12680,7 +12674,7 @@
         <v>612</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12709,7 +12703,7 @@
         <v>614</v>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12738,7 +12732,7 @@
         <v>616</v>
       </c>
       <c r="G323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12767,7 +12761,7 @@
         <v>618</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -12825,7 +12819,7 @@
         <v>622</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12854,7 +12848,7 @@
         <v>624</v>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12883,7 +12877,7 @@
         <v>626</v>
       </c>
       <c r="G328" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12941,7 +12935,7 @@
         <v>630</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12999,7 +12993,7 @@
         <v>634</v>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -13028,7 +13022,7 @@
         <v>636</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -13086,7 +13080,7 @@
         <v>640</v>
       </c>
       <c r="G335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -13115,7 +13109,7 @@
         <v>642</v>
       </c>
       <c r="G336" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -13202,7 +13196,7 @@
         <v>648</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -13260,7 +13254,7 @@
         <v>652</v>
       </c>
       <c r="G341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13289,7 +13283,7 @@
         <v>654</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -13434,7 +13428,7 @@
         <v>664</v>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13666,7 +13660,7 @@
         <v>680</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13695,7 +13689,7 @@
         <v>682</v>
       </c>
       <c r="G356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13811,7 +13805,7 @@
         <v>690</v>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -13840,7 +13834,7 @@
         <v>692</v>
       </c>
       <c r="G361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -13898,7 +13892,7 @@
         <v>696</v>
       </c>
       <c r="G363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -13927,7 +13921,7 @@
         <v>698</v>
       </c>
       <c r="G364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13950,10 +13944,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>699</v>
+        <v>337</v>
       </c>
       <c r="F365" t="s">
-        <v>700</v>
+        <v>338</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13979,13 +13973,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>339</v>
+        <v>699</v>
       </c>
       <c r="F366" t="s">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -14014,7 +14008,7 @@
         <v>702</v>
       </c>
       <c r="G367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -14037,13 +14031,13 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>703</v>
+        <v>339</v>
       </c>
       <c r="F368" t="s">
-        <v>704</v>
+        <v>340</v>
       </c>
       <c r="G368" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -14066,13 +14060,13 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>341</v>
+        <v>703</v>
       </c>
       <c r="F369" t="s">
-        <v>342</v>
+        <v>704</v>
       </c>
       <c r="G369" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -14101,7 +14095,7 @@
         <v>706</v>
       </c>
       <c r="G370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -14362,7 +14356,7 @@
         <v>724</v>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -14391,7 +14385,7 @@
         <v>726</v>
       </c>
       <c r="G380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14420,7 +14414,7 @@
         <v>728</v>
       </c>
       <c r="G381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -14449,7 +14443,7 @@
         <v>730</v>
       </c>
       <c r="G382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -14507,7 +14501,7 @@
         <v>734</v>
       </c>
       <c r="G384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -14565,7 +14559,7 @@
         <v>738</v>
       </c>
       <c r="G386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -14623,7 +14617,7 @@
         <v>742</v>
       </c>
       <c r="G388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -14652,7 +14646,7 @@
         <v>744</v>
       </c>
       <c r="G389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -14675,10 +14669,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>745</v>
+        <v>487</v>
       </c>
       <c r="F390" t="s">
-        <v>746</v>
+        <v>488</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14704,10 +14698,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>489</v>
+        <v>745</v>
       </c>
       <c r="F391" t="s">
-        <v>490</v>
+        <v>746</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14768,7 +14762,7 @@
         <v>750</v>
       </c>
       <c r="G393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -14797,7 +14791,7 @@
         <v>752</v>
       </c>
       <c r="G394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -14878,10 +14872,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>757</v>
+        <v>625</v>
       </c>
       <c r="F397" t="s">
-        <v>758</v>
+        <v>626</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14907,10 +14901,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>627</v>
+        <v>757</v>
       </c>
       <c r="F398" t="s">
-        <v>628</v>
+        <v>758</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14994,10 +14988,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>763</v>
+        <v>617</v>
       </c>
       <c r="F401" t="s">
-        <v>764</v>
+        <v>618</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15023,13 +15017,13 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>619</v>
+        <v>763</v>
       </c>
       <c r="F402" t="s">
-        <v>620</v>
+        <v>764</v>
       </c>
       <c r="G402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -15058,7 +15052,7 @@
         <v>766</v>
       </c>
       <c r="G403" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -15087,7 +15081,7 @@
         <v>768</v>
       </c>
       <c r="G404" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -15168,10 +15162,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>773</v>
+        <v>641</v>
       </c>
       <c r="F407" t="s">
-        <v>774</v>
+        <v>642</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15197,13 +15191,13 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>643</v>
+        <v>773</v>
       </c>
       <c r="F408" t="s">
-        <v>644</v>
+        <v>774</v>
       </c>
       <c r="G408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
@@ -15232,7 +15226,7 @@
         <v>776</v>
       </c>
       <c r="G409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -15377,7 +15371,7 @@
         <v>786</v>
       </c>
       <c r="G414" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -15406,7 +15400,7 @@
         <v>788</v>
       </c>
       <c r="G415" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -15464,7 +15458,7 @@
         <v>792</v>
       </c>
       <c r="G417" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -15493,7 +15487,7 @@
         <v>794</v>
       </c>
       <c r="G418" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -15632,13 +15626,13 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
       <c r="F423" t="s">
-        <v>804</v>
+        <v>766</v>
       </c>
       <c r="G423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -15661,13 +15655,13 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>767</v>
+        <v>803</v>
       </c>
       <c r="F424" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="G424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -15899,7 +15893,7 @@
         <v>820</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -15928,7 +15922,7 @@
         <v>822</v>
       </c>
       <c r="G433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -15957,7 +15951,7 @@
         <v>824</v>
       </c>
       <c r="G434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -15986,7 +15980,7 @@
         <v>826</v>
       </c>
       <c r="G435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H435" t="s">
         <v>4</v>
@@ -16009,10 +16003,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>827</v>
+        <v>591</v>
       </c>
       <c r="F436" t="s">
-        <v>828</v>
+        <v>592</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16038,10 +16032,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>593</v>
+        <v>827</v>
       </c>
       <c r="F437" t="s">
-        <v>594</v>
+        <v>828</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16444,10 +16438,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>855</v>
+        <v>619</v>
       </c>
       <c r="F451" t="s">
-        <v>856</v>
+        <v>620</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16473,10 +16467,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>621</v>
+        <v>855</v>
       </c>
       <c r="F452" t="s">
-        <v>622</v>
+        <v>856</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16972,7 +16966,7 @@
         <v>890</v>
       </c>
       <c r="G469" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H469" t="s">
         <v>4</v>
@@ -16995,13 +16989,13 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>891</v>
+        <v>319</v>
       </c>
       <c r="F470" t="s">
-        <v>892</v>
+        <v>320</v>
       </c>
       <c r="G470" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -17024,10 +17018,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>321</v>
+        <v>891</v>
       </c>
       <c r="F471" t="s">
-        <v>322</v>
+        <v>892</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17378,7 +17372,7 @@
         <v>916</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -17407,7 +17401,7 @@
         <v>918</v>
       </c>
       <c r="G484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -17459,10 +17453,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>921</v>
+        <v>501</v>
       </c>
       <c r="F486" t="s">
-        <v>922</v>
+        <v>502</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17488,10 +17482,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>503</v>
+        <v>921</v>
       </c>
       <c r="F487" t="s">
-        <v>504</v>
+        <v>922</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17871,7 +17865,7 @@
         <v>948</v>
       </c>
       <c r="G500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H500" t="s">
         <v>4</v>
@@ -17900,7 +17894,7 @@
         <v>950</v>
       </c>
       <c r="G501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H501" t="s">
         <v>4</v>
@@ -18074,7 +18068,7 @@
         <v>962</v>
       </c>
       <c r="G507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H507" t="s">
         <v>4</v>
@@ -18103,7 +18097,7 @@
         <v>964</v>
       </c>
       <c r="G508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18335,7 +18329,7 @@
         <v>980</v>
       </c>
       <c r="G516" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H516" t="s">
         <v>4</v>
@@ -18364,7 +18358,7 @@
         <v>982</v>
       </c>
       <c r="G517" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H517" t="s">
         <v>4</v>
@@ -18422,7 +18416,7 @@
         <v>986</v>
       </c>
       <c r="G519" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -18451,7 +18445,7 @@
         <v>988</v>
       </c>
       <c r="G520" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -18625,7 +18619,7 @@
         <v>1000</v>
       </c>
       <c r="G526" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
@@ -18648,47 +18642,18 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
+        <v>999</v>
+      </c>
+      <c r="F527" t="s">
         <v>1001</v>
       </c>
-      <c r="F527" t="s">
-        <v>1002</v>
-      </c>
       <c r="G527" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
       </c>
       <c r="I527" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="s">
-        <v>0</v>
-      </c>
-      <c r="C528" t="s">
-        <v>1</v>
-      </c>
-      <c r="D528" t="n">
-        <v>527</v>
-      </c>
-      <c r="E528" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F528" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G528" t="n">
-        <v>1</v>
-      </c>
-      <c r="H528" t="s">
-        <v>4</v>
-      </c>
-      <c r="I528" t="n">
         <v>3</v>
       </c>
     </row>
